--- a/biology/Botanique/Euterpe_edulis/Euterpe_edulis.xlsx
+++ b/biology/Botanique/Euterpe_edulis/Euterpe_edulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Euterpe edulis, communément appelé ensarova,  jussara,  palmito, palmito dulce ou  palmitero, est une espèce de palmiers de la famille des Arecaceae, originaire d'Amérique du Sud. Il pousse seulement sur des sols argileux et humides et protégés de la lumière solaire.
 La plante est native de Bolivie, du Brésil, du Paraguay, du Pérou, de l'Argentine (dans les provinces de Misiones et de Corrientes)
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 juillet 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 juillet 2017) :
 variété Euterpe edulis var. clausa Mattos</t>
         </is>
       </c>
